--- a/Dia8/Tablas Normalización.xlsx
+++ b/Dia8/Tablas Normalización.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MySQL_LizarazoMaria\Dia8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uniminuto Tibu\Desktop\MySQL_LizarazoMaria\Dia8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F0035-DE1C-477C-B647-8A3F062CEE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>INT (PK)</t>
   </si>
@@ -45,12 +44,6 @@
     <t>idClientes</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
     <t>Cedula</t>
   </si>
   <si>
@@ -151,12 +144,57 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>Tabla Descuentos</t>
+  </si>
+  <si>
+    <t>idDescuentos</t>
+  </si>
+  <si>
+    <t>Fecha_Inicio_Dto</t>
+  </si>
+  <si>
+    <t>Fecha_Finalizacion_Dto</t>
+  </si>
+  <si>
+    <t>Porcentaje_Dto</t>
+  </si>
+  <si>
+    <t>Tabla Retraso</t>
+  </si>
+  <si>
+    <t>idRetraso</t>
+  </si>
+  <si>
+    <t>Dias_Retraso</t>
+  </si>
+  <si>
+    <t>Porcentaje_Dias_Retraso</t>
+  </si>
+  <si>
+    <t>Nombre1</t>
+  </si>
+  <si>
+    <t>Nombre2</t>
+  </si>
+  <si>
+    <t>Apellido1</t>
+  </si>
+  <si>
+    <t>Apellido2</t>
+  </si>
+  <si>
+    <t>idSucursal_Salida</t>
+  </si>
+  <si>
+    <t>idSucursal_Llegada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,9 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,7 +333,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,6 +346,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,47 +630,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -641,32 +678,36 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -680,26 +721,30 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -718,56 +763,56 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -800,68 +845,66 @@
       <c r="K8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -882,78 +925,80 @@
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -966,134 +1011,138 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="D19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="H19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="K19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="L19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1110,132 +1159,186 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="B22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="7"/>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B14:L14"/>
     <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dia8/Tablas Normalización.xlsx
+++ b/Dia8/Tablas Normalización.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>INT (PK)</t>
   </si>
@@ -131,18 +131,12 @@
     <t>Valor_Alquiler_Dia</t>
   </si>
   <si>
-    <t>Porcentaje_Descuento</t>
-  </si>
-  <si>
     <t>Valor_Cotizado</t>
   </si>
   <si>
     <t>Valor_Pagado</t>
   </si>
   <si>
-    <t>Valor_Adicional_Retraso</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>idSucursal_Llegada</t>
+  </si>
+  <si>
+    <t>Placa</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,11 +342,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,43 +633,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="10"/>
       <c r="N2" s="1"/>
     </row>
@@ -678,16 +678,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -763,19 +763,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
@@ -793,24 +793,26 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
@@ -834,18 +836,20 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
@@ -865,14 +869,14 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -947,19 +951,19 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
@@ -968,16 +972,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1053,22 +1057,22 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -1095,23 +1099,20 @@
       <c r="I19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>38</v>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1119,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>1</v>
@@ -1134,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>1</v>
+      <c r="J20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>2</v>
@@ -1152,9 +1153,6 @@
         <v>2</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1174,14 +1172,14 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1192,16 +1190,16 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1222,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1260,14 +1258,14 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1278,22 +1276,19 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1319,9 +1314,6 @@
       <c r="F28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1333,12 +1325,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B6:K6"/>
     <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dia8/Tablas Normalización.xlsx
+++ b/Dia8/Tablas Normalización.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>INT (PK)</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Placa</t>
+  </si>
+  <si>
+    <t>Realizado por: María Lizarazo.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +249,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -294,11 +303,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,14 +377,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,17 +672,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
@@ -657,19 +698,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="10"/>
       <c r="N2" s="1"/>
     </row>
@@ -763,19 +804,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
@@ -869,14 +910,14 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -951,19 +992,19 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
@@ -1057,22 +1098,22 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -1172,14 +1213,14 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1258,13 +1299,13 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1322,15 +1363,22 @@
       <c r="M28" s="8"/>
       <c r="N28" s="6"/>
     </row>
+    <row r="30" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
